--- a/medicine/Mort/Cimetière_d'Oulu/Cimetière_d'Oulu.xlsx
+++ b/medicine/Mort/Cimetière_d'Oulu/Cimetière_d'Oulu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Oulu</t>
+          <t>Cimetière_d'Oulu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière d'Oulu (en finnois : Oulun hautausmaa) est situé à dans le quartier de Intiö à Oulu en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Oulu</t>
+          <t>Cimetière_d'Oulu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière est inauguré en 1781 par le vicaire Carl Henrik Ståhle[1].
-Le cimetière sera alors connu sous le nom de Ståhleborg, la partie la plus ancienne est toujours appelée avec cet ancien nom[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière est inauguré en 1781 par le vicaire Carl Henrik Ståhle.
+Le cimetière sera alors connu sous le nom de Ståhleborg, la partie la plus ancienne est toujours appelée avec cet ancien nom.
 Le cimetière comprend une carré  militaire pour les soldats tombés au cours de la seconde Guerre mondiale.
 La zone des sépultures de soldats et du monument aux morts a été inaugurée en septembre 1952.
-Le monument aux morts intitulé La bataille est terminée' (finnois : Taistelu on päättynyt), est sculptée par Oskari Jauhiainen[3].
-Le cimetière à deux chapelles funéraires: l'ancienne chapelle  conçue par Otto F. Holm est construite en 1923 et est située dans l'ancienne section[4].
-La nouvelle chapelle conçue par Seppo Valjus est construite en 1972-173. Le crématorium est situé dans le bâtiment de la nouvelle chapelle[5].
+Le monument aux morts intitulé La bataille est terminée' (finnois : Taistelu on päättynyt), est sculptée par Oskari Jauhiainen.
+Le cimetière à deux chapelles funéraires: l'ancienne chapelle  conçue par Otto F. Holm est construite en 1923 et est située dans l'ancienne section.
+La nouvelle chapelle conçue par Seppo Valjus est construite en 1972-173. Le crématorium est situé dans le bâtiment de la nouvelle chapelle.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_d%27Oulu</t>
+          <t>Cimetière_d'Oulu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Personnalités reposant au cimetière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Arvo Alanne, journaliste,
